--- a/notebooks/metrics_lora.xlsx
+++ b/notebooks/metrics_lora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60130060\aibek_diploma\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7A9DB1-42AD-413B-A9A3-920E32EE9172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49DF0F8-55BB-4C26-86D7-555B679A6661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="198">
   <si>
     <t>CLIP-I</t>
   </si>
@@ -39,195 +39,12 @@
     <t>dog</t>
   </si>
   <si>
-    <t>0.24834694</t>
-  </si>
-  <si>
-    <t>0.93100274</t>
-  </si>
-  <si>
-    <t>0.8773863</t>
-  </si>
-  <si>
     <t>backpack</t>
   </si>
   <si>
     <t>cat</t>
   </si>
   <si>
-    <t>0.24252953</t>
-  </si>
-  <si>
-    <t>0.8576475</t>
-  </si>
-  <si>
-    <t>0.25906914</t>
-  </si>
-  <si>
-    <t>0.8447423</t>
-  </si>
-  <si>
-    <t>0.25100052</t>
-  </si>
-  <si>
-    <t>0.93621874</t>
-  </si>
-  <si>
-    <t>0.8781279</t>
-  </si>
-  <si>
-    <t>0.23358762</t>
-  </si>
-  <si>
-    <t>0.8923712</t>
-  </si>
-  <si>
-    <t>0.85814136</t>
-  </si>
-  <si>
-    <t>0.25790077</t>
-  </si>
-  <si>
-    <t>0.9212343</t>
-  </si>
-  <si>
-    <t>0.8486153</t>
-  </si>
-  <si>
-    <t>0.240844</t>
-  </si>
-  <si>
-    <t>0.9319149</t>
-  </si>
-  <si>
-    <t>0.8870421</t>
-  </si>
-  <si>
-    <t>0.23636675</t>
-  </si>
-  <si>
-    <t>0.88407826</t>
-  </si>
-  <si>
-    <t>0.8578187</t>
-  </si>
-  <si>
-    <t>0.24968967</t>
-  </si>
-  <si>
-    <t>0.92819273</t>
-  </si>
-  <si>
-    <t>0.8574889</t>
-  </si>
-  <si>
-    <t>0.23258534</t>
-  </si>
-  <si>
-    <t>0.928424</t>
-  </si>
-  <si>
-    <t>0.88016886</t>
-  </si>
-  <si>
-    <t>0.22846907</t>
-  </si>
-  <si>
-    <t>0.23475336</t>
-  </si>
-  <si>
-    <t>0.9088888</t>
-  </si>
-  <si>
-    <t>0.8690799</t>
-  </si>
-  <si>
-    <t>0.246093</t>
-  </si>
-  <si>
-    <t>0.92865723</t>
-  </si>
-  <si>
-    <t>0.8726592</t>
-  </si>
-  <si>
-    <t>0.9271951</t>
-  </si>
-  <si>
-    <t>0.8786147</t>
-  </si>
-  <si>
-    <t>0.23113437</t>
-  </si>
-  <si>
-    <t>0.90312165</t>
-  </si>
-  <si>
-    <t>0.8741269</t>
-  </si>
-  <si>
-    <t>0.23877786</t>
-  </si>
-  <si>
-    <t>0.9322218</t>
-  </si>
-  <si>
-    <t>0.8907047</t>
-  </si>
-  <si>
-    <t>0.21995403</t>
-  </si>
-  <si>
-    <t>0.8323</t>
-  </si>
-  <si>
-    <t>0.91131806</t>
-  </si>
-  <si>
-    <t>0.22108077</t>
-  </si>
-  <si>
-    <t>0.88214284</t>
-  </si>
-  <si>
-    <t>0.89553547</t>
-  </si>
-  <si>
-    <t>0.2293319</t>
-  </si>
-  <si>
-    <t>0.9204384</t>
-  </si>
-  <si>
-    <t>0.89368</t>
-  </si>
-  <si>
-    <t>0.21558517</t>
-  </si>
-  <si>
-    <t>0.835353</t>
-  </si>
-  <si>
-    <t>0.9144912</t>
-  </si>
-  <si>
-    <t>0.22581714</t>
-  </si>
-  <si>
-    <t>0.8922394</t>
-  </si>
-  <si>
-    <t>0.88582903</t>
-  </si>
-  <si>
-    <t>0.2267661</t>
-  </si>
-  <si>
-    <t>0.9137786</t>
-  </si>
-  <si>
-    <t>0.93761003</t>
-  </si>
-  <si>
     <t>Concept</t>
   </si>
   <si>
@@ -238,6 +55,570 @@
   </si>
   <si>
     <t>LoRA</t>
+  </si>
+  <si>
+    <t>Checkpoint</t>
+  </si>
+  <si>
+    <t>0.2584526</t>
+  </si>
+  <si>
+    <t>0.93577033</t>
+  </si>
+  <si>
+    <t>0.8492181</t>
+  </si>
+  <si>
+    <t>0.9020742</t>
+  </si>
+  <si>
+    <t>0.84522164</t>
+  </si>
+  <si>
+    <t>0.23863055</t>
+  </si>
+  <si>
+    <t>0.94066733</t>
+  </si>
+  <si>
+    <t>0.24769403</t>
+  </si>
+  <si>
+    <t>0.9320033</t>
+  </si>
+  <si>
+    <t>0.8722761</t>
+  </si>
+  <si>
+    <t>0.90235394</t>
+  </si>
+  <si>
+    <t>0.23673607</t>
+  </si>
+  <si>
+    <t>0.8918318</t>
+  </si>
+  <si>
+    <t>0.85788006</t>
+  </si>
+  <si>
+    <t>0.2317593</t>
+  </si>
+  <si>
+    <t>0.94402033</t>
+  </si>
+  <si>
+    <t>0.9093108</t>
+  </si>
+  <si>
+    <t>0.2401933</t>
+  </si>
+  <si>
+    <t>0.9375735</t>
+  </si>
+  <si>
+    <t>0.87472713</t>
+  </si>
+  <si>
+    <t>0.23575154</t>
+  </si>
+  <si>
+    <t>0.89380896</t>
+  </si>
+  <si>
+    <t>0.8606068</t>
+  </si>
+  <si>
+    <t>0.2172092</t>
+  </si>
+  <si>
+    <t>0.9253788</t>
+  </si>
+  <si>
+    <t>0.9064478</t>
+  </si>
+  <si>
+    <t>0.26462197</t>
+  </si>
+  <si>
+    <t>0.92684245</t>
+  </si>
+  <si>
+    <t>0.8460511</t>
+  </si>
+  <si>
+    <t>0.23891</t>
+  </si>
+  <si>
+    <t>0.90233916</t>
+  </si>
+  <si>
+    <t>0.89551157</t>
+  </si>
+  <si>
+    <t>0.24938847</t>
+  </si>
+  <si>
+    <t>0.94160426</t>
+  </si>
+  <si>
+    <t>0.87679505</t>
+  </si>
+  <si>
+    <t>0.24427263</t>
+  </si>
+  <si>
+    <t>0.93950254</t>
+  </si>
+  <si>
+    <t>0.23895207</t>
+  </si>
+  <si>
+    <t>0.8996574</t>
+  </si>
+  <si>
+    <t>0.86904836</t>
+  </si>
+  <si>
+    <t>0.2411441</t>
+  </si>
+  <si>
+    <t>0.94192016</t>
+  </si>
+  <si>
+    <t>0.89700943</t>
+  </si>
+  <si>
+    <t>0.22730139</t>
+  </si>
+  <si>
+    <t>0.9359649</t>
+  </si>
+  <si>
+    <t>0.9074668</t>
+  </si>
+  <si>
+    <t>0.23433217</t>
+  </si>
+  <si>
+    <t>0.8956421</t>
+  </si>
+  <si>
+    <t>0.8716963</t>
+  </si>
+  <si>
+    <t>0.22223273</t>
+  </si>
+  <si>
+    <t>0.9294126</t>
+  </si>
+  <si>
+    <t>0.9012811</t>
+  </si>
+  <si>
+    <t>0.2598814</t>
+  </si>
+  <si>
+    <t>0.92622447</t>
+  </si>
+  <si>
+    <t>0.8531998</t>
+  </si>
+  <si>
+    <t>0.23840146</t>
+  </si>
+  <si>
+    <t>0.90636116</t>
+  </si>
+  <si>
+    <t>0.86068153</t>
+  </si>
+  <si>
+    <t>0.24372521</t>
+  </si>
+  <si>
+    <t>0.9413565</t>
+  </si>
+  <si>
+    <t>0.8956041</t>
+  </si>
+  <si>
+    <t>0.2383307</t>
+  </si>
+  <si>
+    <t>0.9445721</t>
+  </si>
+  <si>
+    <t>0.8912298</t>
+  </si>
+  <si>
+    <t>0.23731472</t>
+  </si>
+  <si>
+    <t>0.8909719</t>
+  </si>
+  <si>
+    <t>0.8696836</t>
+  </si>
+  <si>
+    <t>0.2267745</t>
+  </si>
+  <si>
+    <t>0.94139326</t>
+  </si>
+  <si>
+    <t>0.91463584</t>
+  </si>
+  <si>
+    <t>0.21763498</t>
+  </si>
+  <si>
+    <t>0.8789378</t>
+  </si>
+  <si>
+    <t>0.86601794</t>
+  </si>
+  <si>
+    <t>0.23036703</t>
+  </si>
+  <si>
+    <t>0.93688637</t>
+  </si>
+  <si>
+    <t>0.9197651</t>
+  </si>
+  <si>
+    <t>0.20953682</t>
+  </si>
+  <si>
+    <t>0.9365055</t>
+  </si>
+  <si>
+    <t>0.9302567</t>
+  </si>
+  <si>
+    <t>0.2505555</t>
+  </si>
+  <si>
+    <t>0.93395895</t>
+  </si>
+  <si>
+    <t>0.8710006</t>
+  </si>
+  <si>
+    <t>0.24056433</t>
+  </si>
+  <si>
+    <t>0.8913718</t>
+  </si>
+  <si>
+    <t>0.86390054</t>
+  </si>
+  <si>
+    <t>0.2302781</t>
+  </si>
+  <si>
+    <t>0.919406</t>
+  </si>
+  <si>
+    <t>0.8948674</t>
+  </si>
+  <si>
+    <t>0.23966481</t>
+  </si>
+  <si>
+    <t>0.92640716</t>
+  </si>
+  <si>
+    <t>0.8939231</t>
+  </si>
+  <si>
+    <t>0.23839608</t>
+  </si>
+  <si>
+    <t>0.8967845</t>
+  </si>
+  <si>
+    <t>0.87092334</t>
+  </si>
+  <si>
+    <t>0.21317026</t>
+  </si>
+  <si>
+    <t>0.94467866</t>
+  </si>
+  <si>
+    <t>0.91878283</t>
+  </si>
+  <si>
+    <t>0.21476918</t>
+  </si>
+  <si>
+    <t>0.943079</t>
+  </si>
+  <si>
+    <t>0.9292595</t>
+  </si>
+  <si>
+    <t>0.22457032</t>
+  </si>
+  <si>
+    <t>0.8724978</t>
+  </si>
+  <si>
+    <t>0.8829845</t>
+  </si>
+  <si>
+    <t>0.2089252</t>
+  </si>
+  <si>
+    <t>0.9303678</t>
+  </si>
+  <si>
+    <t>0.91923505</t>
+  </si>
+  <si>
+    <t>0.24308145</t>
+  </si>
+  <si>
+    <t>0.9304704</t>
+  </si>
+  <si>
+    <t>0.8832378</t>
+  </si>
+  <si>
+    <t>0.24032001</t>
+  </si>
+  <si>
+    <t>0.88611895</t>
+  </si>
+  <si>
+    <t>0.86939394</t>
+  </si>
+  <si>
+    <t>0.22442648</t>
+  </si>
+  <si>
+    <t>0.94127196</t>
+  </si>
+  <si>
+    <t>0.9057374</t>
+  </si>
+  <si>
+    <t>0.22114249</t>
+  </si>
+  <si>
+    <t>0.94463325</t>
+  </si>
+  <si>
+    <t>0.9185617</t>
+  </si>
+  <si>
+    <t>0.23151787</t>
+  </si>
+  <si>
+    <t>0.894887</t>
+  </si>
+  <si>
+    <t>0.87363863</t>
+  </si>
+  <si>
+    <t>0.2168739</t>
+  </si>
+  <si>
+    <t>0.94380206</t>
+  </si>
+  <si>
+    <t>0.9129019</t>
+  </si>
+  <si>
+    <t>0.20715643</t>
+  </si>
+  <si>
+    <t>0.92364043</t>
+  </si>
+  <si>
+    <t>0.9357294</t>
+  </si>
+  <si>
+    <t>0.21935083</t>
+  </si>
+  <si>
+    <t>0.8793876</t>
+  </si>
+  <si>
+    <t>0.8782098</t>
+  </si>
+  <si>
+    <t>0.20829512</t>
+  </si>
+  <si>
+    <t>0.9359851</t>
+  </si>
+  <si>
+    <t>0.917217</t>
+  </si>
+  <si>
+    <t>0.23336118</t>
+  </si>
+  <si>
+    <t>0.9382437</t>
+  </si>
+  <si>
+    <t>0.8983795</t>
+  </si>
+  <si>
+    <t>0.23358132</t>
+  </si>
+  <si>
+    <t>0.8958484</t>
+  </si>
+  <si>
+    <t>0.8793517</t>
+  </si>
+  <si>
+    <t>0.21951269</t>
+  </si>
+  <si>
+    <t>0.9388681</t>
+  </si>
+  <si>
+    <t>0.9130914</t>
+  </si>
+  <si>
+    <t>0.21483687</t>
+  </si>
+  <si>
+    <t>0.94184583</t>
+  </si>
+  <si>
+    <t>0.92635465</t>
+  </si>
+  <si>
+    <t>0.22483297</t>
+  </si>
+  <si>
+    <t>0.8661968</t>
+  </si>
+  <si>
+    <t>0.890912</t>
+  </si>
+  <si>
+    <t>0.20822921</t>
+  </si>
+  <si>
+    <t>0.94311243</t>
+  </si>
+  <si>
+    <t>0.9245536</t>
+  </si>
+  <si>
+    <t>0.20592922</t>
+  </si>
+  <si>
+    <t>0.9323719</t>
+  </si>
+  <si>
+    <t>0.9351193</t>
+  </si>
+  <si>
+    <t>0.2068461</t>
+  </si>
+  <si>
+    <t>0.8646371</t>
+  </si>
+  <si>
+    <t>0.8966669</t>
+  </si>
+  <si>
+    <t>0.9313728</t>
+  </si>
+  <si>
+    <t>0.9354262</t>
+  </si>
+  <si>
+    <t>0.22730866</t>
+  </si>
+  <si>
+    <t>0.927275</t>
+  </si>
+  <si>
+    <t>0.8940857</t>
+  </si>
+  <si>
+    <t>0.23462372</t>
+  </si>
+  <si>
+    <t>0.8785614</t>
+  </si>
+  <si>
+    <t>0.87493604</t>
+  </si>
+  <si>
+    <t>0.21195011</t>
+  </si>
+  <si>
+    <t>0.94323176</t>
+  </si>
+  <si>
+    <t>0.93155426</t>
+  </si>
+  <si>
+    <t>0.21031551</t>
+  </si>
+  <si>
+    <t>0.9372812</t>
+  </si>
+  <si>
+    <t>0.9320757</t>
+  </si>
+  <si>
+    <t>0.22330365</t>
+  </si>
+  <si>
+    <t>0.8772367</t>
+  </si>
+  <si>
+    <t>0.8849434</t>
+  </si>
+  <si>
+    <t>0.20705137</t>
+  </si>
+  <si>
+    <t>0.93142724</t>
+  </si>
+  <si>
+    <t>0.91619796</t>
+  </si>
+  <si>
+    <t>0.20576103</t>
+  </si>
+  <si>
+    <t>0.9168036</t>
+  </si>
+  <si>
+    <t>0.92904717</t>
+  </si>
+  <si>
+    <t>0.20451942</t>
+  </si>
+  <si>
+    <t>0.8895179</t>
+  </si>
+  <si>
+    <t>0.86490715</t>
+  </si>
+  <si>
+    <t>0.20810284</t>
+  </si>
+  <si>
+    <t>0.918742</t>
+  </si>
+  <si>
+    <t>0.92748076</t>
+  </si>
+  <si>
+    <t>0.24343322</t>
   </si>
 </sst>
 </file>
@@ -556,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,12 +950,12 @@
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -586,10 +967,13 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -597,416 +981,1445 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
       <c r="B4" s="1">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="1">
-        <v>32</v>
-      </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="1">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
         <v>8</v>
       </c>
-      <c r="B16" s="1">
-        <v>64</v>
-      </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
         <v>8</v>
       </c>
-      <c r="B19" s="1">
-        <v>128</v>
-      </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1">
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1">
+        <v>64</v>
+      </c>
+      <c r="C42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1">
+        <v>64</v>
+      </c>
+      <c r="C43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" t="s">
+        <v>134</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1">
+        <v>64</v>
+      </c>
+      <c r="C44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" t="s">
+        <v>137</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="1">
+        <v>64</v>
+      </c>
+      <c r="C45" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1">
+        <v>64</v>
+      </c>
+      <c r="C46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="1">
+        <v>128</v>
+      </c>
+      <c r="C47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" t="s">
+        <v>146</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="1">
+        <v>128</v>
+      </c>
+      <c r="C48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" t="s">
+        <v>149</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="1">
+        <v>128</v>
+      </c>
+      <c r="C49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="1">
+        <v>128</v>
+      </c>
+      <c r="C50" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" t="s">
+        <v>155</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="1">
+        <v>128</v>
+      </c>
+      <c r="C51" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" t="s">
+        <v>157</v>
+      </c>
+      <c r="E51" t="s">
+        <v>158</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="1">
+        <v>128</v>
+      </c>
+      <c r="C52" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" t="s">
+        <v>160</v>
+      </c>
+      <c r="E52" t="s">
+        <v>161</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1">
+        <v>128</v>
+      </c>
+      <c r="C53" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" t="s">
+        <v>164</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="1">
+        <v>128</v>
+      </c>
+      <c r="C54" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54" t="s">
+        <v>167</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="1">
+        <v>128</v>
+      </c>
+      <c r="C55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" t="s">
+        <v>168</v>
+      </c>
+      <c r="E55" t="s">
+        <v>169</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="1">
         <v>256</v>
       </c>
-      <c r="C20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="1">
+      <c r="C56" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56" t="s">
+        <v>172</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="1">
         <v>256</v>
       </c>
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="1">
+      <c r="C57" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E57" t="s">
+        <v>175</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="1">
         <v>256</v>
       </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" t="s">
-        <v>70</v>
+      <c r="C58" t="s">
+        <v>176</v>
+      </c>
+      <c r="D58" t="s">
+        <v>177</v>
+      </c>
+      <c r="E58" t="s">
+        <v>178</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="1">
+        <v>256</v>
+      </c>
+      <c r="C59" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" t="s">
+        <v>180</v>
+      </c>
+      <c r="E59" t="s">
+        <v>181</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="1">
+        <v>256</v>
+      </c>
+      <c r="C60" t="s">
+        <v>182</v>
+      </c>
+      <c r="D60" t="s">
+        <v>183</v>
+      </c>
+      <c r="E60" t="s">
+        <v>184</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="1">
+        <v>256</v>
+      </c>
+      <c r="C61" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" t="s">
+        <v>186</v>
+      </c>
+      <c r="E61" t="s">
+        <v>187</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="1">
+        <v>256</v>
+      </c>
+      <c r="C62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D62" t="s">
+        <v>189</v>
+      </c>
+      <c r="E62" t="s">
+        <v>190</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="1">
+        <v>256</v>
+      </c>
+      <c r="C63" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" t="s">
+        <v>193</v>
+      </c>
+      <c r="E63" t="s">
+        <v>192</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="1">
+        <v>256</v>
+      </c>
+      <c r="C64" t="s">
+        <v>194</v>
+      </c>
+      <c r="D64" t="s">
+        <v>195</v>
+      </c>
+      <c r="E64" t="s">
+        <v>196</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
